--- a/docs/PruebaEntrada.xlsx
+++ b/docs/PruebaEntrada.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\UCH_INGSOFT3_001\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Nro.</t>
   </si>
@@ -159,13 +157,28 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>Insuficiente</t>
+  </si>
+  <si>
+    <t>Suficiente</t>
+  </si>
+  <si>
+    <t>Excede las espectativas</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +189,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,23 +246,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -242,13 +274,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -515,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,756 +626,923 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>11201069</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>13101005</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>13101006</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>12110008</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>12210059</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
         <v>12210003</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>12110012</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>12210004</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>13101018</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="5">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>11201016</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>12210051</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>11101116</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>13101110</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>7</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>13101118</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>12210011</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>11201080</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>11201072</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>11101055</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>12210020</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>12210061</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>12210021</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="5">
-        <v>6</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>8010497</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>11201040</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="3">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>13101056</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="5">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>8010236</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>4</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>13101059</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="5">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5">
-        <v>6</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="D27" s="3">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>13101067</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>5</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>13101068</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>7</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>7</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>13101070</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="5">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5">
-        <v>6</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="D30" s="3">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>13101071</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>7</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>7</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>10201078</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>10201080</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>8010301</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>13101085</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>13101086</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>7</v>
       </c>
-      <c r="E36" s="5">
-        <v>6</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="E36" s="3">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>12110083</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="D37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>12110088</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5">
-        <v>6</v>
-      </c>
-      <c r="E38" s="5">
-        <v>6</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="D38" s="3">
+        <v>6</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>12210041</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="D39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>10201107</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="1">
-        <f>COUNT(D2:D40)</f>
+      <c r="D40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="7">
+        <f>COUNTIF($D$2:$D$40,7)</f>
+        <v>8</v>
+      </c>
+      <c r="E41" s="7">
+        <f>COUNTIF($E$2:$E$40,7)</f>
+        <v>3</v>
+      </c>
+      <c r="F41" s="7">
+        <f>COUNTIF($F$2:$F$40,7)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
+        <f>D41/$D$44*100</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H41" s="13">
+        <f>E41/$E$44*100</f>
+        <v>10</v>
+      </c>
+      <c r="I41" s="13">
+        <f>F41/$F$44*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="7">
+        <f>SUMPRODUCT(($D$2:$D$40&gt;=5)*($D$2:$D$40&lt;=6))</f>
+        <v>13</v>
+      </c>
+      <c r="E42" s="7">
+        <f>SUMPRODUCT(($E$2:$E$40&gt;=5)*($E$2:$E$40&lt;=6))</f>
+        <v>14</v>
+      </c>
+      <c r="F42" s="7">
+        <f>SUMPRODUCT(($F$2:$F$40&gt;=5)*($F$2:$F$40&lt;=6))</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" ref="G42:G43" si="0">D42/$D$44*100</f>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" ref="H42:H43" si="1">E42/$E$44*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" ref="I42:I43" si="2">F42/$F$44*100</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="9">
+        <f>SUMPRODUCT(($D$2:$D$40&gt;=0)*($D$2:$D$40&lt;=4))</f>
+        <v>9</v>
+      </c>
+      <c r="E43" s="9">
+        <f>SUMPRODUCT(($E$2:$E$40&gt;=0)*($E$2:$E$40&lt;=4))</f>
+        <v>13</v>
+      </c>
+      <c r="F43" s="9">
+        <f>SUMPRODUCT(($F$2:$F$40&gt;=0)*($F$2:$F$40&lt;=4))</f>
+        <v>29</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="0"/>
         <v>30</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="1"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="2"/>
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1">
+        <f>SUM(D41:D43)</f>
+        <v>30</v>
+      </c>
+      <c r="E44" s="1">
+        <f>SUM(E41:E43)</f>
+        <v>30</v>
+      </c>
+      <c r="F44" s="1">
+        <f>SUM(F41:F43)</f>
+        <v>30</v>
+      </c>
+      <c r="G44" s="13">
+        <f>SUM(G41:G43)</f>
+        <v>100</v>
+      </c>
+      <c r="H44" s="13">
+        <f>SUM(H41:H43)</f>
+        <v>100</v>
+      </c>
+      <c r="I44" s="13">
+        <f>SUM(I41:I43)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>